--- a/3.matematica_informatica/TDE_2/TDE-2.xlsx
+++ b/3.matematica_informatica/TDE_2/TDE-2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b421c2bcef418c5b/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b421c2bcef418c5b/Desktop/Projetos hospedados - GitHub/Faculdade-UNIFAN/3.matematica_informatica/TDE_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{9B957C1C-5155-4000-B559-9C2E2592F639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{507AAB86-EA28-4BAA-8E4A-8EA9E4E951C7}"/>
+  <xr:revisionPtr revIDLastSave="272" documentId="13_ncr:1_{9B957C1C-5155-4000-B559-9C2E2592F639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE0F9F4F-4158-4FCC-9587-6882BB7C6F48}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8459CD8F-F25F-43E2-9B55-DFBDB680E5B7}"/>
   </bookViews>
@@ -137,7 +137,7 @@
     <t>(AxB)xA^t =</t>
   </si>
   <si>
-    <t xml:space="preserve">Dupla: Mattia Poletto, Kaique Mendes, Gabriel Maier, Matheus </t>
+    <t xml:space="preserve">Grupo: Mattia Poletto, Kaique Mendes, Gabriel Maier, Matheus Marques </t>
   </si>
 </sst>
 </file>
@@ -341,6 +341,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -662,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BF4D63-E5BC-409A-B3F2-A5ABCD800D29}">
   <dimension ref="A1:BK19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="238" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM4" sqref="AM4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,14 +803,8 @@
       <c r="I3" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="2">
-        <f>D3+D6</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <f>E3+E6</f>
-        <v>0</v>
-      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
       <c r="N3" t="s">
         <v>4</v>
       </c>
@@ -911,14 +909,8 @@
     <row r="4" spans="1:63" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="J4" s="2">
-        <f>D4+D7</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <f>E4+E7</f>
-        <v>0</v>
-      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
       <c r="O4" s="2">
         <f>E3</f>
         <v>0</v>
@@ -1042,14 +1034,8 @@
       <c r="I6" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="2">
-        <f>(D3*D6)+(E3*D7)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <f>(D3*E6)+(E3*E7)</f>
-        <v>0</v>
-      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
       <c r="N6" t="s">
         <v>5</v>
       </c>
@@ -1119,14 +1105,8 @@
     <row r="7" spans="1:63" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="J7" s="2">
-        <f>(D4*D6)+(E4*D7)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <f>(D4*E6)+(E4*E7)</f>
-        <v>0</v>
-      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
       <c r="O7" s="2">
         <f>E6</f>
         <v>0</v>
@@ -1263,18 +1243,9 @@
       <c r="I11" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="2">
-        <f>D11+D15</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" ref="J11:L13" si="0">E11+E15</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
       <c r="N11" t="s">
         <v>4</v>
       </c>
@@ -1309,15 +1280,15 @@
         <v>11</v>
       </c>
       <c r="Y11" s="2">
-        <f t="shared" ref="Y11:AA13" si="1">(D11+O11+D15)</f>
+        <f t="shared" ref="Y11:AA13" si="0">(D11+O11+D15)</f>
         <v>0</v>
       </c>
       <c r="Z11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD11" s="1" t="str">
@@ -1331,18 +1302,9 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="J12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
       <c r="O12" s="2">
         <f>E11</f>
         <v>0</v>
@@ -1368,15 +1330,15 @@
         <v>0</v>
       </c>
       <c r="Y12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC12" t="s">
@@ -1401,18 +1363,9 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="J13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
       <c r="O13" s="2">
         <f>F11</f>
         <v>0</v>
@@ -1438,15 +1391,15 @@
         <v>0</v>
       </c>
       <c r="Y13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD13" s="2" t="str">
@@ -1490,18 +1443,9 @@
       <c r="I15" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="2">
-        <f>(D11*D15+E11*D16+F11*D17)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <f>(D11*E15+E11*E16+F11*E17)</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <f>(D11*F15+E11*F16+F11*F17)</f>
-        <v>0</v>
-      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
       <c r="N15" t="s">
         <v>5</v>
       </c>
@@ -1521,15 +1465,15 @@
         <v>10</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" ref="T15:V17" si="2">(J15+T11)</f>
+        <f t="shared" ref="T15:V17" si="1">(J15+T11)</f>
         <v>0</v>
       </c>
       <c r="U15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X15" t="s">
@@ -1561,18 +1505,9 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="J16" s="2">
-        <f>(D12*D15+E12*D16+F12*D17)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="2">
-        <f>(D12*E15+E12*E16+F12*E17)</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
-        <f>(D12*F15+E12*F16+F12*F17)</f>
-        <v>0</v>
-      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
       <c r="O16" s="2">
         <f>E15</f>
         <v>0</v>
@@ -1586,15 +1521,15 @@
         <v>0</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y16" s="2">
@@ -1616,18 +1551,9 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="J17" s="2">
-        <f>(D13*D15+E13*D16+F13*D17)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
-        <f>(D13*E15+E13*E16+F13*E17)</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
-        <f>(D13*F15+E13*F16+F13*F17)</f>
-        <v>0</v>
-      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
       <c r="O17" s="2">
         <f>F15</f>
         <v>0</v>
@@ -1641,15 +1567,15 @@
         <v>0</v>
       </c>
       <c r="T17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y17" s="2">
